--- a/ConvertedEqual/Colorado_Converted.xlsx
+++ b/ConvertedEqual/Colorado_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="278">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -813,6 +813,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1602,7 +1638,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AC7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -3031,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.03846153846153846</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3120,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3209,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3298,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.4423076922923076</v>
+        <v>0.4791666666499999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3387,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3476,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3565,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3654,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.5961538461384615</v>
+        <v>0.6458333333166666</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3743,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.5961538461384615</v>
+        <v>0.6458333333166666</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3832,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.5961538461384615</v>
+        <v>0.6458333333166666</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3921,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4010,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4099,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4188,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4277,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4366,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4455,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4544,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4633,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4722,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4811,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4900,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4989,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5078,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5167,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5256,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5345,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5434,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5523,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5612,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5701,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="AC54">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5790,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5879,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5968,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6057,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6146,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6235,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6324,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6413,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6502,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6591,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6680,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.8461538461384616</v>
+        <v>0.8333333333166667</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6769,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.7692307692153846</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6858,7 +6894,7 @@
         <v>1</v>
       </c>
       <c r="AC67">
-        <v>0.7692307692153846</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6947,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.7692307692153846</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7036,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.7692307692153846</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7125,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.7692307692153846</v>
+        <v>0.7499999999833333</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7214,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>0.6153846153692306</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7303,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="AC72">
-        <v>0.6153846153692306</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7392,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="AC73">
-        <v>0.6153846153692306</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7481,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7570,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7659,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7748,7 +7784,7 @@
         <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7837,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7926,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8015,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8104,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.5384615384461537</v>
+        <v>0.5833333333166665</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8193,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8282,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8371,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8460,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8549,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8638,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8727,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8816,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8905,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8994,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9083,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9172,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9261,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="AC94">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9350,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9439,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.5192307692153846</v>
+        <v>0.5624999999833332</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9528,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9617,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AC98">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9706,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9795,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9884,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9973,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10062,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10151,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.4423076923</v>
+        <v>0.4791666666583334</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10240,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10329,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10418,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10507,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10596,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10685,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10774,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10863,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10952,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11041,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11130,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11219,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11308,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11397,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.3269230769153846</v>
+        <v>0.3541666666583334</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11486,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11575,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11664,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11753,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11842,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11931,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12020,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12109,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12198,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12287,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12376,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12465,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12554,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12643,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12732,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12821,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12910,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12999,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13088,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13177,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="AC138">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13266,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13355,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13444,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13533,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13622,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13711,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13800,7 +13836,7 @@
         <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13889,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="AC146">
-        <v>0.2179487179461539</v>
+        <v>0.2361111111083334</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13978,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14067,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="AC148">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14156,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14245,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14334,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14423,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14512,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14601,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14690,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="AC155">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14779,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14868,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14957,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15046,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15135,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15224,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15313,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15402,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="AC163">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15491,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15580,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="AC165">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15669,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15758,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15847,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="AC168">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15936,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16025,7 +16061,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16114,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16203,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16292,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16381,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16470,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16559,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16648,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16737,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16826,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16915,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17004,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="AC181">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17093,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17182,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17271,7 +17307,7 @@
         <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17360,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="AC185">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17449,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="AC186">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17538,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17627,7 +17663,7 @@
         <v>0</v>
       </c>
       <c r="AC188">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17716,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17805,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17894,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17983,7 +18019,7 @@
         <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18072,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18161,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18250,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="AC195">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18339,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="AC196">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18428,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18517,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18606,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="AC199">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18695,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="AC200">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18784,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="AC201">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18873,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="AC202">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18962,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="AC203">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19051,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19140,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="AC205">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19229,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19318,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19407,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19496,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19585,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19674,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19763,7 +19799,7 @@
         <v>0</v>
       </c>
       <c r="AC212">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19852,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="AC213">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19941,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20030,7 +20066,7 @@
         <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20119,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="AC216">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20208,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20297,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20386,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20475,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20564,7 +20600,1075 @@
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.2948717948692308</v>
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0.3194444444416667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0.3194444444416667</v>
       </c>
     </row>
   </sheetData>
